--- a/Docs/DiseñoTablas.xlsx
+++ b/Docs/DiseñoTablas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g.najera\Documents\Vue\PC_MDE\pos\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD937342-6F77-405D-A6BB-3878AFAB936E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9B2A79-CE5D-46CF-88A2-7FC764FC5B36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{F39C785E-E7DF-4272-8FE6-E953DC509F75}"/>
   </bookViews>

--- a/Docs/DiseñoTablas.xlsx
+++ b/Docs/DiseñoTablas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g.najera\Documents\Vue\PC_MDE\pos\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9B2A79-CE5D-46CF-88A2-7FC764FC5B36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7E458C-8C3C-42B6-AC60-93289C3A59B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{F39C785E-E7DF-4272-8FE6-E953DC509F75}"/>
+    <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="769" activeTab="3" xr2:uid="{F39C785E-E7DF-4272-8FE6-E953DC509F75}"/>
   </bookViews>
   <sheets>
     <sheet name="Empresa" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,11 @@
     <sheet name="Documento" sheetId="2" r:id="rId4"/>
     <sheet name="DetalleDocumento" sheetId="4" r:id="rId5"/>
     <sheet name="ReferenciaDocumento" sheetId="6" r:id="rId6"/>
-    <sheet name="OItrosDocumento" sheetId="7" r:id="rId7"/>
-    <sheet name="Categoria" sheetId="8" r:id="rId8"/>
-    <sheet name="Producto" sheetId="9" r:id="rId9"/>
+    <sheet name="DocumentoArchivos" sheetId="11" r:id="rId7"/>
+    <sheet name="OItrosDocumento" sheetId="7" r:id="rId8"/>
+    <sheet name="Categoria" sheetId="8" r:id="rId9"/>
+    <sheet name="Producto" sheetId="9" r:id="rId10"/>
+    <sheet name="Usuarios" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4796" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4837" uniqueCount="346">
   <si>
     <t>CodigoActividad</t>
   </si>
@@ -243,9 +245,6 @@
   </si>
   <si>
     <t>FechaEnvioEmail</t>
-  </si>
-  <si>
-    <t>CorreoClectronicoReceptor</t>
   </si>
   <si>
     <t>NumeroOrdenCompra</t>
@@ -938,9 +937,6 @@
     <t>CodCategoria varchar(3)  not null,</t>
   </si>
   <si>
-    <t>Descripción varchar(50) not null,</t>
-  </si>
-  <si>
     <t>Estado Varchar(10) constraint def_Estado default 'Activo',</t>
   </si>
   <si>
@@ -1023,6 +1019,69 @@
   </si>
   <si>
     <t>alter table Producto with nocheck add constraint FK_Empresa foreign key(NumeroIdentificacion) references Empresa (NumeroIdentificacion)</t>
+  </si>
+  <si>
+    <t>Descripcion varchar(50) not null,</t>
+  </si>
+  <si>
+    <t>Tabla Usuarios</t>
+  </si>
+  <si>
+    <t>IdUsuario</t>
+  </si>
+  <si>
+    <t>NombreUsuario</t>
+  </si>
+  <si>
+    <t>max()</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Create table Usuario (</t>
+  </si>
+  <si>
+    <t>IdUsuario uniqueidentifier primary key default newid(),</t>
+  </si>
+  <si>
+    <t>NombreUsuario varchar(60) not null,</t>
+  </si>
+  <si>
+    <t>LoginUsuario varchar(20) not null,</t>
+  </si>
+  <si>
+    <t>ClaveUsuario varchar(max) not null,</t>
+  </si>
+  <si>
+    <t>CorreoUsuario varchar(160) null</t>
+  </si>
+  <si>
+    <t>DocumentoXML nvarchar(max) not null,</t>
+  </si>
+  <si>
+    <t>MensajeHaciendaXML nvarchar(max) null,</t>
+  </si>
+  <si>
+    <t>DocumentoJSON nvarchar(max) null,</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>alter table DocumentoArchivos with nocheck add constraint FK_DocumentoArchivos foreign key(NumeroIdentificacion, CodigoSucursal, TipoDocumento, NumeroConsecutivo) references Documento (NumeroIdentificacion, CodigoSucursal,TipoDocumento, NumeroConsecutivo)</t>
+  </si>
+  <si>
+    <t>Create table DocumentoArchivos (</t>
+  </si>
+  <si>
+    <t>alter table DocumentoArchivos check constraint FK_DocumentoArchivos</t>
+  </si>
+  <si>
+    <t>constraint PK_DocumentoArchivos Primary Key clustered (NumeroIdentificacion asc, CodigoSucursal asc, TipoDocumento asc, NumeroConsecutivo asc))</t>
+  </si>
+  <si>
+    <t>CorreoElectronicoReceptor</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1802,7 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B39"/>
+      <selection activeCell="C20" sqref="C20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,7 +1862,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -2053,7 +2112,7 @@
         <v>45</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -2071,7 +2130,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -2103,92 +2162,92 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2197,2921 +2256,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BB54D7-D133-425E-9EE7-7A9C958052A6}">
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFFA2D0-6723-4FDE-A8B2-56158D2CFEFE}">
-  <dimension ref="A1:L40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:H40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="51.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>12</v>
-      </c>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4">
-        <v>80</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4">
-        <v>20</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2</v>
-      </c>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>250</v>
-      </c>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
-        <v>3</v>
-      </c>
-      <c r="I16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4">
-        <v>160</v>
-      </c>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124C4498-25DC-48C0-ADBE-1E18C8FBE04D}">
-  <dimension ref="A1:E122"/>
-  <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="4">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="4">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" s="4">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="4">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="4">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="4">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>139</v>
-      </c>
-      <c r="B35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>143</v>
-      </c>
-      <c r="B37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>145</v>
-      </c>
-      <c r="B38" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>163</v>
-      </c>
-      <c r="B41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" t="s">
-        <v>151</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>164</v>
-      </c>
-      <c r="B42" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D48" s="4"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="4">
-        <v>3</v>
-      </c>
-      <c r="C52" s="2">
-        <v>506</v>
-      </c>
-      <c r="D52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="4">
-        <v>2</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="4">
-        <v>2</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="4">
-        <v>2</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="4">
-        <v>12</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="4">
-        <v>20</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="4">
-        <v>1</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="4">
-        <v>8</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>201</v>
-      </c>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>208</v>
-      </c>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EB333E-F10F-45E2-A3AB-3984D22AC42C}">
-  <dimension ref="A1:M59"/>
-  <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:I59"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="4">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="4">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="4">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>200</v>
-      </c>
-      <c r="F12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8437B525-1EAA-491B-8C84-AE0BD2CBBC12}">
-  <dimension ref="A1:E36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="150.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="4">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="4">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45555E7-99EE-45ED-896A-3A7A0CF862B6}">
-  <dimension ref="A1:E32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="150.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="4">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="4">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" s="4">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87C7900-9017-457D-8E78-549FAF945D6A}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>295</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D72094-4FBE-47FD-AD1F-84507F2F75FD}">
   <dimension ref="A1:XEZ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19457,7 +16607,7 @@
   <sheetData>
     <row r="1" spans="1:1020 1025:2044 2049:3068 3073:4092 4097:5116 5121:6140 6145:7164 7169:8188 8193:9212 9217:10236 10241:11260 11265:12284 12289:13308 13313:14332 14337:15356 15361:16380" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -44056,13 +41206,13 @@
     </row>
     <row r="4" spans="1:1020 1025:2044 2049:3068 3073:4092 4097:5116 5121:6140 6145:7164 7169:8188 8193:9212 9217:10236 10241:11260 11265:12284 12289:13308 13313:14332 14337:15356 15361:16380" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -44070,13 +41220,13 @@
     </row>
     <row r="5" spans="1:1020 1025:2044 2049:3068 3073:4092 4097:5116 5121:6140 6145:7164 7169:8188 8193:9212 9217:10236 10241:11260 11265:12284 12289:13308 13313:14332 14337:15356 15361:16380" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -44084,13 +41234,13 @@
     </row>
     <row r="6" spans="1:1020 1025:2044 2049:3068 3073:4092 4097:5116 5121:6140 6145:7164 7169:8188 8193:9212 9217:10236 10241:11260 11265:12284 12289:13308 13313:14332 14337:15356 15361:16380" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D6" s="4">
         <v>15</v>
@@ -44098,13 +41248,13 @@
     </row>
     <row r="7" spans="1:1020 1025:2044 2049:3068 3073:4092 4097:5116 5121:6140 6145:7164 7169:8188 8193:9212 9217:10236 10241:11260 11265:12284 12289:13308 13313:14332 14337:15356 15361:16380" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -44112,27 +41262,27 @@
     </row>
     <row r="8" spans="1:1020 1025:2044 2049:3068 3073:4092 4097:5116 5121:6140 6145:7164 7169:8188 8193:9212 9217:10236 10241:11260 11265:12284 12289:13308 13313:14332 14337:15356 15361:16380" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" t="s">
         <v>105</v>
-      </c>
-      <c r="B8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" t="s">
-        <v>291</v>
-      </c>
-      <c r="D8" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:1020 1025:2044 2049:3068 3073:4092 4097:5116 5121:6140 6145:7164 7169:8188 8193:9212 9217:10236 10241:11260 11265:12284 12289:13308 13313:14332 14337:15356 15361:16380" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D9">
         <v>13</v>
@@ -44140,67 +41290,3202 @@
     </row>
     <row r="13" spans="1:1020 1025:2044 2049:3068 3073:4092 4097:5116 5121:6140 6145:7164 7169:8188 8193:9212 9217:10236 10241:11260 11265:12284 12289:13308 13313:14332 14337:15356 15361:16380" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:1020 1025:2044 2049:3068 3073:4092 4097:5116 5121:6140 6145:7164 7169:8188 8193:9212 9217:10236 10241:11260 11265:12284 12289:13308 13313:14332 14337:15356 15361:16380" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:1020 1025:2044 2049:3068 3073:4092 4097:5116 5121:6140 6145:7164 7169:8188 8193:9212 9217:10236 10241:11260 11265:12284 12289:13308 13313:14332 14337:15356 15361:16380" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:1020 1025:2044 2049:3068 3073:4092 4097:5116 5121:6140 6145:7164 7169:8188 8193:9212 9217:10236 10241:11260 11265:12284 12289:13308 13313:14332 14337:15356 15361:16380" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2160877-2867-45E4-9F1B-D777B326C998}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BB54D7-D133-425E-9EE7-7A9C958052A6}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFFA2D0-6723-4FDE-A8B2-56158D2CFEFE}">
+  <dimension ref="A1:L40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:H40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="51.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>12</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>80</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>250</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>160</v>
+      </c>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124C4498-25DC-48C0-ADBE-1E18C8FBE04D}">
+  <dimension ref="A1:E122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="4">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="4">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="4">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>345</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="4">
+        <v>3</v>
+      </c>
+      <c r="C52" s="2">
+        <v>506</v>
+      </c>
+      <c r="D52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="4">
+        <v>2</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="4">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="4">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="4">
+        <v>12</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="4">
+        <v>20</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="4">
+        <v>8</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>206</v>
+      </c>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EB333E-F10F-45E2-A3AB-3984D22AC42C}">
+  <dimension ref="A1:M59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:A59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="4">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="4">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="4">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8437B525-1EAA-491B-8C84-AE0BD2CBBC12}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="150.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="4">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC493C2B-15FF-48ED-BC5A-145EE01CE372}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45555E7-99EE-45ED-896A-3A7A0CF862B6}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="150.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="4">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="4">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="4">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87C7900-9017-457D-8E78-549FAF945D6A}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
